--- a/data_processing/2024/OES/data/echelle_db.xlsx
+++ b/data_processing/2024/OES/data/echelle_db.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/OES/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8454DEE0-49BB-5C48-9FD7-2C6981C93AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C1809-B458-BA49-A651-AC6CA5C1F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spectrometer parameters" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Spectrometer parameters'!$A$1:$P$73</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="57">
   <si>
     <t>Folder</t>
   </si>
@@ -188,6 +191,9 @@
   </si>
   <si>
     <t>echelle_20240910</t>
+  </si>
+  <si>
+    <t>Is dark</t>
   </si>
 </sst>
 </file>
@@ -197,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +215,20 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,14 +266,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -557,11 +583,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -573,7 +599,7 @@
     <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -589,10 +615,10 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -619,8 +645,11 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -640,7 +669,7 @@
         <v>0.6</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -666,8 +695,11 @@
       <c r="O2">
         <v>21.9</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -713,8 +745,11 @@
       <c r="O3">
         <v>21.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -734,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -760,8 +795,11 @@
       <c r="O4">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -781,7 +819,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -807,8 +845,11 @@
       <c r="O5">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -828,7 +869,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -854,8 +895,11 @@
       <c r="O6">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -875,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -901,8 +945,11 @@
       <c r="O7">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -948,8 +995,11 @@
       <c r="O8">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -969,7 +1019,7 @@
         <v>0.2</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -995,8 +1045,11 @@
       <c r="O9">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1016,7 +1069,7 @@
         <v>0.2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1042,8 +1095,11 @@
       <c r="O10">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1089,8 +1145,11 @@
       <c r="O11">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1136,8 +1195,11 @@
       <c r="O12">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1183,8 +1245,11 @@
       <c r="O13">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1204,7 +1269,7 @@
         <v>0.2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -1230,8 +1295,11 @@
       <c r="O14">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1251,7 +1319,7 @@
         <v>0.2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1277,8 +1345,11 @@
       <c r="O15">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1324,8 +1395,11 @@
       <c r="O16">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1371,8 +1445,11 @@
       <c r="O17">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1392,7 +1469,7 @@
         <v>0.2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -1418,8 +1495,11 @@
       <c r="O18">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1439,7 +1519,7 @@
         <v>0.2</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -1465,8 +1545,11 @@
       <c r="O19">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1512,8 +1595,11 @@
       <c r="O20">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1559,8 +1645,11 @@
       <c r="O21">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1580,7 +1669,7 @@
         <v>0.2</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -1606,8 +1695,11 @@
       <c r="O22">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1627,7 +1719,7 @@
         <v>0.2</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -1653,8 +1745,11 @@
       <c r="O23">
         <v>23.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1674,7 +1769,7 @@
         <v>0.2</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
         <v>1</v>
@@ -1700,8 +1795,11 @@
       <c r="O24">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1721,7 +1819,7 @@
         <v>0.2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -1747,8 +1845,11 @@
       <c r="O25">
         <v>23.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1794,8 +1895,11 @@
       <c r="O26">
         <v>23.7</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1841,8 +1945,11 @@
       <c r="O27">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1888,8 +1995,11 @@
       <c r="O28">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -1935,8 +2045,11 @@
       <c r="O29">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1982,8 +2095,11 @@
       <c r="O30">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2029,8 +2145,11 @@
       <c r="O31">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2050,7 +2169,7 @@
         <v>0.2</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -2076,8 +2195,11 @@
       <c r="O32">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2097,7 +2219,7 @@
         <v>0.2</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>1</v>
@@ -2123,8 +2245,11 @@
       <c r="O33">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2144,7 +2269,7 @@
         <v>0.2</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -2170,8 +2295,11 @@
       <c r="O34">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2191,7 +2319,7 @@
         <v>0.2</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -2217,8 +2345,11 @@
       <c r="O35">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2238,7 +2369,7 @@
         <v>0.2</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>1</v>
@@ -2264,8 +2395,11 @@
       <c r="O36">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2285,7 +2419,7 @@
         <v>0.2</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>1</v>
@@ -2311,8 +2445,11 @@
       <c r="O37">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2332,7 +2469,7 @@
         <v>0.2</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>1</v>
@@ -2358,8 +2495,11 @@
       <c r="O38">
         <v>22.1</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2379,7 +2519,7 @@
         <v>0.1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>1</v>
@@ -2405,8 +2545,11 @@
       <c r="O39">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2426,7 +2569,7 @@
         <v>0.1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>1</v>
@@ -2452,8 +2595,11 @@
       <c r="O40">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2473,7 +2619,7 @@
         <v>0.1</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>1</v>
@@ -2499,8 +2645,11 @@
       <c r="O41">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2546,8 +2695,11 @@
       <c r="O42">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2567,7 +2719,7 @@
         <v>0.1</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
         <v>1</v>
@@ -2593,8 +2745,11 @@
       <c r="O43">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2640,8 +2795,11 @@
       <c r="O44">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2661,7 +2819,7 @@
         <v>0.1</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -2687,8 +2845,11 @@
       <c r="O45">
         <v>22.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2734,8 +2895,11 @@
       <c r="O46">
         <v>22.3</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2755,7 +2919,7 @@
         <v>0.1</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -2781,8 +2945,11 @@
       <c r="O47">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2828,8 +2995,11 @@
       <c r="O48">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -2875,8 +3045,11 @@
       <c r="O49">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -2896,7 +3069,7 @@
         <v>0.1</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -2922,8 +3095,11 @@
       <c r="O50">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -2943,7 +3119,7 @@
         <v>0.1</v>
       </c>
       <c r="G51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
         <v>1</v>
@@ -2969,8 +3145,11 @@
       <c r="O51">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3016,8 +3195,11 @@
       <c r="O52">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -3063,8 +3245,11 @@
       <c r="O53">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -3084,7 +3269,7 @@
         <v>0.1</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
         <v>1</v>
@@ -3110,8 +3295,11 @@
       <c r="O54">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -3131,7 +3319,7 @@
         <v>0.1</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
         <v>1</v>
@@ -3157,8 +3345,11 @@
       <c r="O55">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3178,7 +3369,7 @@
         <v>0.1</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
         <v>1</v>
@@ -3204,8 +3395,11 @@
       <c r="O56">
         <v>22.9</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -3251,8 +3445,11 @@
       <c r="O57">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -3298,8 +3495,11 @@
       <c r="O58">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -3319,7 +3519,7 @@
         <v>0.1</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -3345,8 +3545,11 @@
       <c r="O59">
         <v>23.2</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -3366,7 +3569,7 @@
         <v>0.1</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -3392,8 +3595,11 @@
       <c r="O60">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -3439,8 +3645,11 @@
       <c r="O61">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -3460,7 +3669,7 @@
         <v>0.2</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62">
         <v>1</v>
@@ -3486,8 +3695,11 @@
       <c r="O62">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -3507,7 +3719,7 @@
         <v>0.2</v>
       </c>
       <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63">
         <v>1</v>
@@ -3533,8 +3745,11 @@
       <c r="O63">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -3554,7 +3769,7 @@
         <v>0.2</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -3580,8 +3795,11 @@
       <c r="O64">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -3601,7 +3819,7 @@
         <v>0.2</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -3627,8 +3845,11 @@
       <c r="O65">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -3648,7 +3869,7 @@
         <v>0.2</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66">
         <v>1</v>
@@ -3674,8 +3895,11 @@
       <c r="O66">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -3695,7 +3919,7 @@
         <v>0.2</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
         <v>1</v>
@@ -3721,8 +3945,11 @@
       <c r="O67">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -3742,7 +3969,7 @@
         <v>0.2</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -3768,8 +3995,11 @@
       <c r="O68">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -3789,7 +4019,7 @@
         <v>0.2</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -3815,8 +4045,11 @@
       <c r="O69">
         <v>22.8</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -3836,7 +4069,7 @@
         <v>0.2</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70">
         <v>1</v>
@@ -3862,8 +4095,11 @@
       <c r="O70">
         <v>22.6</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -3883,7 +4119,7 @@
         <v>0.2</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71">
         <v>1</v>
@@ -3909,8 +4145,11 @@
       <c r="O71">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -3930,7 +4169,7 @@
         <v>0.2</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72">
         <v>1</v>
@@ -3956,8 +4195,11 @@
       <c r="O72">
         <v>22.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -3977,7 +4219,7 @@
         <v>0.2</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73">
         <v>1</v>
@@ -4003,8 +4245,12 @@
       <c r="O73">
         <v>22.7</v>
       </c>
+      <c r="P73">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data_processing/2024/OES/data/echelle_db.xlsx
+++ b/data_processing/2024/OES/data/echelle_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/OES/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8C1809-B458-BA49-A651-AC6CA5C1F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1949D099-63DC-1542-BEBC-F5DC527878CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,27 @@
     <sheet name="Spectrometer parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Spectrometer parameters'!$A$1:$P$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Spectrometer parameters'!$A$1:$Q$73</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="63">
   <si>
     <t>Folder</t>
   </si>
@@ -194,6 +207,24 @@
   </si>
   <si>
     <t>Is dark</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Boron rod</t>
+  </si>
+  <si>
+    <t>Boron pebble rod</t>
+  </si>
+  <si>
+    <t>Labsphere</t>
+  </si>
+  <si>
+    <t>echelle_20241003</t>
+  </si>
+  <si>
+    <t>Poly boron pebble rod</t>
   </si>
 </sst>
 </file>
@@ -215,6 +246,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -266,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -279,6 +311,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -583,11 +618,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P73"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:R1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -599,7 +635,7 @@
     <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -648,8 +684,11 @@
       <c r="P1" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -698,8 +737,11 @@
       <c r="P2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -748,8 +790,11 @@
       <c r="P3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -798,8 +843,11 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -848,8 +896,11 @@
       <c r="P5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -898,8 +949,11 @@
       <c r="P6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -948,8 +1002,11 @@
       <c r="P7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -998,8 +1055,11 @@
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1048,8 +1108,11 @@
       <c r="P9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1098,8 +1161,11 @@
       <c r="P10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1148,8 +1214,11 @@
       <c r="P11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1198,8 +1267,11 @@
       <c r="P12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1248,8 +1320,11 @@
       <c r="P13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1298,8 +1373,11 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1348,8 +1426,11 @@
       <c r="P15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1398,8 +1479,11 @@
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1448,8 +1532,11 @@
       <c r="P17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1498,8 +1585,11 @@
       <c r="P18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1548,8 +1638,11 @@
       <c r="P19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1598,8 +1691,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1648,8 +1744,11 @@
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1698,8 +1797,11 @@
       <c r="P22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1748,8 +1850,11 @@
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1798,8 +1903,11 @@
       <c r="P24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1846,10 +1954,13 @@
         <v>23.6</v>
       </c>
       <c r="P25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1896,10 +2007,13 @@
         <v>23.7</v>
       </c>
       <c r="P26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -1948,8 +2062,11 @@
       <c r="P27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -1998,8 +2115,11 @@
       <c r="P28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2048,8 +2168,11 @@
       <c r="P29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2098,8 +2221,11 @@
       <c r="P30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2148,8 +2274,11 @@
       <c r="P31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2198,8 +2327,11 @@
       <c r="P32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2248,8 +2380,11 @@
       <c r="P33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2298,8 +2433,11 @@
       <c r="P34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2348,8 +2486,11 @@
       <c r="P35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2398,8 +2539,11 @@
       <c r="P36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2448,8 +2592,11 @@
       <c r="P37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q37" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2498,8 +2645,11 @@
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2548,8 +2698,11 @@
       <c r="P39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2598,8 +2751,11 @@
       <c r="P40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2648,8 +2804,11 @@
       <c r="P41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2698,8 +2857,11 @@
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2748,8 +2910,11 @@
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2798,8 +2963,11 @@
       <c r="P44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2848,8 +3016,11 @@
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2898,8 +3069,11 @@
       <c r="P46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -2948,8 +3122,11 @@
       <c r="P47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -2998,8 +3175,11 @@
       <c r="P48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -3048,8 +3228,11 @@
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -3098,8 +3281,11 @@
       <c r="P50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -3148,8 +3334,11 @@
       <c r="P51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q51" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3198,8 +3387,11 @@
       <c r="P52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -3248,8 +3440,11 @@
       <c r="P53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -3298,8 +3493,11 @@
       <c r="P54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -3348,8 +3546,11 @@
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3398,8 +3599,11 @@
       <c r="P56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -3448,8 +3652,11 @@
       <c r="P57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -3498,8 +3705,11 @@
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -3548,8 +3758,11 @@
       <c r="P59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -3596,10 +3809,13 @@
         <v>23.3</v>
       </c>
       <c r="P60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -3646,10 +3862,13 @@
         <v>23.3</v>
       </c>
       <c r="P61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -3698,8 +3917,11 @@
       <c r="P62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -3748,8 +3970,11 @@
       <c r="P63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -3798,8 +4023,11 @@
       <c r="P64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -3848,8 +4076,11 @@
       <c r="P65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -3898,8 +4129,11 @@
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -3948,8 +4182,11 @@
       <c r="P67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -3998,8 +4235,11 @@
       <c r="P68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -4048,8 +4288,11 @@
       <c r="P69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -4098,8 +4341,11 @@
       <c r="P70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -4148,8 +4394,11 @@
       <c r="P71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -4198,8 +4447,11 @@
       <c r="P72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -4248,9 +4500,1503 @@
       <c r="P73">
         <v>1</v>
       </c>
+      <c r="Q73" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45568.401331018518</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74">
+        <v>0.2</v>
+      </c>
+      <c r="G74">
+        <v>20</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74">
+        <v>6.5</v>
+      </c>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="K74">
+        <v>4</v>
+      </c>
+      <c r="L74">
+        <v>3000</v>
+      </c>
+      <c r="M74">
+        <v>200000000</v>
+      </c>
+      <c r="N74">
+        <v>130</v>
+      </c>
+      <c r="O74">
+        <v>21.5</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45568.401817129627</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>18</v>
+      </c>
+      <c r="F75">
+        <v>0.1</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>6.5</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+      <c r="K75">
+        <v>4</v>
+      </c>
+      <c r="L75">
+        <v>3000</v>
+      </c>
+      <c r="M75">
+        <v>100000000</v>
+      </c>
+      <c r="N75">
+        <v>130</v>
+      </c>
+      <c r="O75">
+        <v>21.5</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76" t="s">
+        <v>21</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45568.401944444442</v>
+      </c>
+      <c r="D76" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" t="s">
+        <v>18</v>
+      </c>
+      <c r="F76">
+        <v>0.1</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+      <c r="I76">
+        <v>6.5</v>
+      </c>
+      <c r="J76">
+        <v>3</v>
+      </c>
+      <c r="K76">
+        <v>4</v>
+      </c>
+      <c r="L76">
+        <v>3000</v>
+      </c>
+      <c r="M76">
+        <v>100000000</v>
+      </c>
+      <c r="N76">
+        <v>130</v>
+      </c>
+      <c r="O76">
+        <v>21.5</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45568.402372685188</v>
+      </c>
+      <c r="D77" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" t="s">
+        <v>18</v>
+      </c>
+      <c r="F77">
+        <v>0.1</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <v>6.5</v>
+      </c>
+      <c r="J77">
+        <v>3</v>
+      </c>
+      <c r="K77">
+        <v>4</v>
+      </c>
+      <c r="L77">
+        <v>3000</v>
+      </c>
+      <c r="M77">
+        <v>50000000</v>
+      </c>
+      <c r="N77">
+        <v>130</v>
+      </c>
+      <c r="O77">
+        <v>21.5</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45568.403692129628</v>
+      </c>
+      <c r="D78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" t="s">
+        <v>18</v>
+      </c>
+      <c r="F78">
+        <v>0.1</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>6.5</v>
+      </c>
+      <c r="J78">
+        <v>3</v>
+      </c>
+      <c r="K78">
+        <v>4</v>
+      </c>
+      <c r="L78">
+        <v>3000</v>
+      </c>
+      <c r="M78">
+        <v>50000000</v>
+      </c>
+      <c r="N78">
+        <v>130</v>
+      </c>
+      <c r="O78">
+        <v>21.5</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79" t="s">
+        <v>24</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45568.404305555552</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="E79" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79">
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+      <c r="I79">
+        <v>6.5</v>
+      </c>
+      <c r="J79">
+        <v>3</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="L79">
+        <v>3000</v>
+      </c>
+      <c r="M79">
+        <v>1000000000</v>
+      </c>
+      <c r="N79">
+        <v>130</v>
+      </c>
+      <c r="O79">
+        <v>21.6</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45568.406238425923</v>
+      </c>
+      <c r="D80" t="s">
+        <v>17</v>
+      </c>
+      <c r="E80" t="s">
+        <v>18</v>
+      </c>
+      <c r="F80">
+        <v>0.05</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+      <c r="I80">
+        <v>6.5</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+      <c r="K80">
+        <v>4</v>
+      </c>
+      <c r="L80">
+        <v>3000</v>
+      </c>
+      <c r="M80">
+        <v>50000000</v>
+      </c>
+      <c r="N80">
+        <v>130</v>
+      </c>
+      <c r="O80">
+        <v>21.6</v>
+      </c>
+      <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81" t="s">
+        <v>26</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45568.406608796293</v>
+      </c>
+      <c r="D81" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <v>20</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+      <c r="I81">
+        <v>6.5</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+      <c r="K81">
+        <v>4</v>
+      </c>
+      <c r="L81">
+        <v>3000</v>
+      </c>
+      <c r="M81">
+        <v>1000000000</v>
+      </c>
+      <c r="N81">
+        <v>130</v>
+      </c>
+      <c r="O81">
+        <v>21.6</v>
+      </c>
+      <c r="P81">
+        <v>0</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45568.409629629627</v>
+      </c>
+      <c r="D82" t="s">
+        <v>17</v>
+      </c>
+      <c r="E82" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82">
+        <v>20</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+      <c r="I82">
+        <v>6.5</v>
+      </c>
+      <c r="J82">
+        <v>3</v>
+      </c>
+      <c r="K82">
+        <v>4</v>
+      </c>
+      <c r="L82">
+        <v>3000</v>
+      </c>
+      <c r="M82">
+        <v>1000000000</v>
+      </c>
+      <c r="N82">
+        <v>130</v>
+      </c>
+      <c r="O82">
+        <v>21.7</v>
+      </c>
+      <c r="P82">
+        <v>0</v>
+      </c>
+      <c r="Q82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>61</v>
+      </c>
+      <c r="B83" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="1">
+        <v>45568.410439814812</v>
+      </c>
+      <c r="D83" t="s">
+        <v>17</v>
+      </c>
+      <c r="E83" t="s">
+        <v>18</v>
+      </c>
+      <c r="F83">
+        <v>0.05</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <v>6.5</v>
+      </c>
+      <c r="J83">
+        <v>3</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>3000</v>
+      </c>
+      <c r="M83">
+        <v>50000000</v>
+      </c>
+      <c r="N83">
+        <v>130</v>
+      </c>
+      <c r="O83">
+        <v>21.7</v>
+      </c>
+      <c r="P83">
+        <v>0</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" s="1">
+        <v>45568.413576388892</v>
+      </c>
+      <c r="D84" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" t="s">
+        <v>18</v>
+      </c>
+      <c r="F84">
+        <v>0.05</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+      <c r="I84">
+        <v>6.5</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>3000</v>
+      </c>
+      <c r="M84">
+        <v>50000000</v>
+      </c>
+      <c r="N84">
+        <v>130</v>
+      </c>
+      <c r="O84">
+        <v>21.8</v>
+      </c>
+      <c r="P84">
+        <v>0</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>61</v>
+      </c>
+      <c r="B85" t="s">
+        <v>30</v>
+      </c>
+      <c r="C85" s="1">
+        <v>45568.413831018523</v>
+      </c>
+      <c r="D85" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85">
+        <v>20</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <v>6.5</v>
+      </c>
+      <c r="J85">
+        <v>3</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <v>3000</v>
+      </c>
+      <c r="M85">
+        <v>1000000000</v>
+      </c>
+      <c r="N85">
+        <v>130</v>
+      </c>
+      <c r="O85">
+        <v>21.9</v>
+      </c>
+      <c r="P85">
+        <v>0</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>61</v>
+      </c>
+      <c r="B86" t="s">
+        <v>31</v>
+      </c>
+      <c r="C86" s="1">
+        <v>45568.42</v>
+      </c>
+      <c r="D86" t="s">
+        <v>17</v>
+      </c>
+      <c r="E86" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86">
+        <v>20</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <v>6.5</v>
+      </c>
+      <c r="J86">
+        <v>3</v>
+      </c>
+      <c r="K86">
+        <v>4</v>
+      </c>
+      <c r="L86">
+        <v>3000</v>
+      </c>
+      <c r="M86">
+        <v>1000000000</v>
+      </c>
+      <c r="N86">
+        <v>130</v>
+      </c>
+      <c r="O86">
+        <v>22</v>
+      </c>
+      <c r="P86">
+        <v>0</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>61</v>
+      </c>
+      <c r="B87" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="1">
+        <v>45568.420694444438</v>
+      </c>
+      <c r="D87" t="s">
+        <v>17</v>
+      </c>
+      <c r="E87" t="s">
+        <v>18</v>
+      </c>
+      <c r="F87">
+        <v>0.05</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+      <c r="I87">
+        <v>6.5</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>3000</v>
+      </c>
+      <c r="M87">
+        <v>50000000</v>
+      </c>
+      <c r="N87">
+        <v>130</v>
+      </c>
+      <c r="O87">
+        <v>22</v>
+      </c>
+      <c r="P87">
+        <v>0</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="1">
+        <v>45568.423032407409</v>
+      </c>
+      <c r="D88" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88">
+        <v>0.05</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+      <c r="I88">
+        <v>6.5</v>
+      </c>
+      <c r="J88">
+        <v>3</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>3000</v>
+      </c>
+      <c r="M88">
+        <v>50000000</v>
+      </c>
+      <c r="N88">
+        <v>130</v>
+      </c>
+      <c r="O88">
+        <v>22.1</v>
+      </c>
+      <c r="P88">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>61</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="1">
+        <v>45568.423275462963</v>
+      </c>
+      <c r="D89" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89">
+        <v>20</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+      <c r="I89">
+        <v>6.5</v>
+      </c>
+      <c r="J89">
+        <v>3</v>
+      </c>
+      <c r="K89">
+        <v>4</v>
+      </c>
+      <c r="L89">
+        <v>3000</v>
+      </c>
+      <c r="M89">
+        <v>1000000000</v>
+      </c>
+      <c r="N89">
+        <v>130</v>
+      </c>
+      <c r="O89">
+        <v>22.1</v>
+      </c>
+      <c r="P89">
+        <v>0</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" t="s">
+        <v>35</v>
+      </c>
+      <c r="C90" s="1">
+        <v>45568.43172453704</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="E90" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <v>20</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+      <c r="I90">
+        <v>6.5</v>
+      </c>
+      <c r="J90">
+        <v>3</v>
+      </c>
+      <c r="K90">
+        <v>4</v>
+      </c>
+      <c r="L90">
+        <v>3000</v>
+      </c>
+      <c r="M90">
+        <v>1000000000</v>
+      </c>
+      <c r="N90">
+        <v>130</v>
+      </c>
+      <c r="O90">
+        <v>22.4</v>
+      </c>
+      <c r="P90">
+        <v>0</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>61</v>
+      </c>
+      <c r="B91" t="s">
+        <v>36</v>
+      </c>
+      <c r="C91" s="1">
+        <v>45568.432314814818</v>
+      </c>
+      <c r="D91" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" t="s">
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <v>0.05</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+      <c r="H91">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <v>6.5</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <v>4</v>
+      </c>
+      <c r="L91">
+        <v>3000</v>
+      </c>
+      <c r="M91">
+        <v>50000000</v>
+      </c>
+      <c r="N91">
+        <v>130</v>
+      </c>
+      <c r="O91">
+        <v>22.5</v>
+      </c>
+      <c r="P91">
+        <v>0</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B92" t="s">
+        <v>37</v>
+      </c>
+      <c r="C92" s="1">
+        <v>45568.43478009259</v>
+      </c>
+      <c r="D92" t="s">
+        <v>17</v>
+      </c>
+      <c r="E92" t="s">
+        <v>18</v>
+      </c>
+      <c r="F92">
+        <v>0.05</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <v>6.5</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92">
+        <v>4</v>
+      </c>
+      <c r="L92">
+        <v>3000</v>
+      </c>
+      <c r="M92">
+        <v>50000000</v>
+      </c>
+      <c r="N92">
+        <v>130</v>
+      </c>
+      <c r="O92">
+        <v>22.6</v>
+      </c>
+      <c r="P92">
+        <v>0</v>
+      </c>
+      <c r="Q92" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B93" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="1">
+        <v>45568.435023148151</v>
+      </c>
+      <c r="D93" t="s">
+        <v>17</v>
+      </c>
+      <c r="E93" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <v>20</v>
+      </c>
+      <c r="H93">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <v>6.5</v>
+      </c>
+      <c r="J93">
+        <v>3</v>
+      </c>
+      <c r="K93">
+        <v>4</v>
+      </c>
+      <c r="L93">
+        <v>3000</v>
+      </c>
+      <c r="M93">
+        <v>1000000000</v>
+      </c>
+      <c r="N93">
+        <v>130</v>
+      </c>
+      <c r="O93">
+        <v>22.6</v>
+      </c>
+      <c r="P93">
+        <v>0</v>
+      </c>
+      <c r="Q93" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>61</v>
+      </c>
+      <c r="B94" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="1">
+        <v>45568.44158564815</v>
+      </c>
+      <c r="D94" t="s">
+        <v>17</v>
+      </c>
+      <c r="E94" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94">
+        <v>20</v>
+      </c>
+      <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>6.5</v>
+      </c>
+      <c r="J94">
+        <v>3</v>
+      </c>
+      <c r="K94">
+        <v>4</v>
+      </c>
+      <c r="L94">
+        <v>3000</v>
+      </c>
+      <c r="M94">
+        <v>1000000000</v>
+      </c>
+      <c r="N94">
+        <v>130</v>
+      </c>
+      <c r="O94">
+        <v>22.8</v>
+      </c>
+      <c r="P94">
+        <v>0</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="1">
+        <v>45568.442175925928</v>
+      </c>
+      <c r="D95" t="s">
+        <v>17</v>
+      </c>
+      <c r="E95" t="s">
+        <v>18</v>
+      </c>
+      <c r="F95">
+        <v>0.05</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1</v>
+      </c>
+      <c r="I95">
+        <v>6.5</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <v>4</v>
+      </c>
+      <c r="L95">
+        <v>3000</v>
+      </c>
+      <c r="M95">
+        <v>50000000</v>
+      </c>
+      <c r="N95">
+        <v>130</v>
+      </c>
+      <c r="O95">
+        <v>22.8</v>
+      </c>
+      <c r="P95">
+        <v>0</v>
+      </c>
+      <c r="Q95" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>61</v>
+      </c>
+      <c r="B96" t="s">
+        <v>41</v>
+      </c>
+      <c r="C96" s="1">
+        <v>45568.444733796299</v>
+      </c>
+      <c r="D96" t="s">
+        <v>17</v>
+      </c>
+      <c r="E96" t="s">
+        <v>18</v>
+      </c>
+      <c r="F96">
+        <v>0.05</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <v>6.5</v>
+      </c>
+      <c r="J96">
+        <v>3</v>
+      </c>
+      <c r="K96">
+        <v>4</v>
+      </c>
+      <c r="L96">
+        <v>3000</v>
+      </c>
+      <c r="M96">
+        <v>50000000</v>
+      </c>
+      <c r="N96">
+        <v>130</v>
+      </c>
+      <c r="O96">
+        <v>22.9</v>
+      </c>
+      <c r="P96">
+        <v>0</v>
+      </c>
+      <c r="Q96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B97" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="1">
+        <v>45568.444965277777</v>
+      </c>
+      <c r="D97" t="s">
+        <v>17</v>
+      </c>
+      <c r="E97" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97">
+        <v>20</v>
+      </c>
+      <c r="H97">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <v>6.5</v>
+      </c>
+      <c r="J97">
+        <v>3</v>
+      </c>
+      <c r="K97">
+        <v>4</v>
+      </c>
+      <c r="L97">
+        <v>3000</v>
+      </c>
+      <c r="M97">
+        <v>1000000000</v>
+      </c>
+      <c r="N97">
+        <v>130</v>
+      </c>
+      <c r="O97">
+        <v>22.9</v>
+      </c>
+      <c r="P97">
+        <v>0</v>
+      </c>
+      <c r="Q97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>61</v>
+      </c>
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="1">
+        <v>45568.447164351863</v>
+      </c>
+      <c r="D98" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>1</v>
+      </c>
+      <c r="I98">
+        <v>6.5</v>
+      </c>
+      <c r="J98">
+        <v>3</v>
+      </c>
+      <c r="K98">
+        <v>4</v>
+      </c>
+      <c r="L98">
+        <v>3000</v>
+      </c>
+      <c r="M98">
+        <v>1000000000</v>
+      </c>
+      <c r="N98">
+        <v>130</v>
+      </c>
+      <c r="O98">
+        <v>23.1</v>
+      </c>
+      <c r="P98">
+        <v>0</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>61</v>
+      </c>
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="1">
+        <v>45568.447777777779</v>
+      </c>
+      <c r="D99" t="s">
+        <v>17</v>
+      </c>
+      <c r="E99" t="s">
+        <v>18</v>
+      </c>
+      <c r="F99">
+        <v>0.05</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <v>6.5</v>
+      </c>
+      <c r="J99">
+        <v>3</v>
+      </c>
+      <c r="K99">
+        <v>4</v>
+      </c>
+      <c r="L99">
+        <v>3000</v>
+      </c>
+      <c r="M99">
+        <v>50000000</v>
+      </c>
+      <c r="N99">
+        <v>130</v>
+      </c>
+      <c r="O99">
+        <v>23</v>
+      </c>
+      <c r="P99">
+        <v>0</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="1">
+        <v>45568.450844907413</v>
+      </c>
+      <c r="D100" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" t="s">
+        <v>18</v>
+      </c>
+      <c r="F100">
+        <v>0.05</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>6.5</v>
+      </c>
+      <c r="J100">
+        <v>3</v>
+      </c>
+      <c r="K100">
+        <v>4</v>
+      </c>
+      <c r="L100">
+        <v>3000</v>
+      </c>
+      <c r="M100">
+        <v>50000000</v>
+      </c>
+      <c r="N100">
+        <v>130</v>
+      </c>
+      <c r="O100">
+        <v>23.2</v>
+      </c>
+      <c r="P100">
+        <v>1</v>
+      </c>
+      <c r="Q100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>61</v>
+      </c>
+      <c r="B101" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="1">
+        <v>45568.451064814813</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101">
+        <v>20</v>
+      </c>
+      <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>6.5</v>
+      </c>
+      <c r="J101">
+        <v>3</v>
+      </c>
+      <c r="K101">
+        <v>4</v>
+      </c>
+      <c r="L101">
+        <v>3000</v>
+      </c>
+      <c r="M101">
+        <v>1000000000</v>
+      </c>
+      <c r="N101">
+        <v>130</v>
+      </c>
+      <c r="O101">
+        <v>23.2</v>
+      </c>
+      <c r="P101">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>62</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P73" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:Q73" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="echelle_20240827"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data_processing/2024/OES/data/echelle_db.xlsx
+++ b/data_processing/2024/OES/data/echelle_db.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/OES/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARPA-E\Documents\GitHub\relozwall\data_processing\2024\OES\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1949D099-63DC-1542-BEBC-F5DC527878CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D1EA00-7D56-473E-8888-A74EF2BAD8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12525" yWindow="585" windowWidth="15150" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spectrometer parameters" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Spectrometer parameters'!$A$1:$Q$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Spectrometer parameters'!$A$1:$Q$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -618,24 +618,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q1" sqref="Q1:R1048576"/>
+      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
     <col min="2" max="3" width="24" customWidth="1"/>
-    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +687,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -741,7 +740,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -794,7 +793,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -847,7 +846,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -900,7 +899,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -953,7 +952,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1005,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1112,7 +1111,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1165,7 +1164,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1218,7 +1217,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1324,7 +1323,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1430,7 +1429,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1483,7 +1482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1642,7 +1641,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1695,7 +1694,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1801,7 +1800,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1854,7 +1853,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1907,7 +1906,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1960,7 +1959,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2013,7 +2012,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2066,7 +2065,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2225,7 +2224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2384,7 +2383,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2437,7 +2436,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2490,7 +2489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2543,7 +2542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2596,7 +2595,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2649,7 +2648,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2702,7 +2701,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2755,7 +2754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2861,7 +2860,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2914,7 +2913,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2967,7 +2966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3020,7 +3019,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3073,7 +3072,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -3126,7 +3125,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -3179,7 +3178,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -3232,7 +3231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -3285,7 +3284,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3391,7 +3390,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -3444,7 +3443,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -3550,7 +3549,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -3656,7 +3655,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -3709,7 +3708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -3815,7 +3814,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -3868,7 +3867,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -3921,7 +3920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -4080,7 +4079,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -4133,7 +4132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -4186,7 +4185,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -4292,7 +4291,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -4345,7 +4344,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -4398,7 +4397,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -4451,7 +4450,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -4504,7 +4503,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -4557,7 +4556,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -4610,7 +4609,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>61</v>
       </c>
@@ -4663,7 +4662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -4769,7 +4768,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -4822,7 +4821,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>61</v>
       </c>
@@ -4981,7 +4980,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>61</v>
       </c>
@@ -5034,7 +5033,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -5087,7 +5086,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>61</v>
       </c>
@@ -5193,7 +5192,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>61</v>
       </c>
@@ -5246,7 +5245,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -5352,7 +5351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>61</v>
       </c>
@@ -5405,7 +5404,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>61</v>
       </c>
@@ -5458,7 +5457,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>61</v>
       </c>
@@ -5511,7 +5510,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>61</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -5617,7 +5616,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -5670,7 +5669,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -5723,7 +5722,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>61</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>61</v>
       </c>
@@ -5882,7 +5881,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -5935,7 +5934,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>61</v>
       </c>
@@ -5989,14 +5988,8 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q73" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="echelle_20240827"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:Q101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data_processing/2024/OES/data/echelle_db.xlsx
+++ b/data_processing/2024/OES/data/echelle_db.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ARPA-E\Documents\GitHub\relozwall\data_processing\2024\OES\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/OES/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1D1EA00-7D56-473E-8888-A74EF2BAD8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B6E5ED-7B2E-EF46-B64E-FA75A2D7DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12525" yWindow="585" windowWidth="15150" windowHeight="13110" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spectrometer parameters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="65">
   <si>
     <t>Folder</t>
   </si>
@@ -225,6 +225,12 @@
   </si>
   <si>
     <t>Poly boron pebble rod</t>
+  </si>
+  <si>
+    <t>echelle_20241031</t>
+  </si>
+  <si>
+    <t>Boron rod (redeposition)</t>
   </si>
 </sst>
 </file>
@@ -618,23 +624,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q101"/>
+  <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A90" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U117" sqref="U117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="3" width="24" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -687,7 +693,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -740,7 +746,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -793,7 +799,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -846,7 +852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -899,7 +905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -952,7 +958,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1005,7 +1011,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1058,7 +1064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1111,7 +1117,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1217,7 +1223,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1270,7 +1276,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1323,7 +1329,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1376,7 +1382,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1482,7 +1488,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1535,7 +1541,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1641,7 +1647,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1694,7 +1700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1800,7 +1806,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1906,7 +1912,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1959,7 +1965,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2012,7 +2018,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2118,7 +2124,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2171,7 +2177,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2224,7 +2230,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2330,7 +2336,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2436,7 +2442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2489,7 +2495,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2542,7 +2548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2595,7 +2601,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2648,7 +2654,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2754,7 +2760,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2807,7 +2813,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2860,7 +2866,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2913,7 +2919,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3072,7 +3078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -3178,7 +3184,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -3231,7 +3237,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -3284,7 +3290,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3390,7 +3396,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -3443,7 +3449,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -3496,7 +3502,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3602,7 +3608,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -3655,7 +3661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -3708,7 +3714,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -3761,7 +3767,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -3814,7 +3820,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -3867,7 +3873,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -3920,7 +3926,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -4026,7 +4032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -4079,7 +4085,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -4132,7 +4138,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -4185,7 +4191,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -4238,7 +4244,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -4291,7 +4297,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -4344,7 +4350,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -4397,7 +4403,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -4450,7 +4456,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -4503,7 +4509,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -4556,7 +4562,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -4609,7 +4615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>61</v>
       </c>
@@ -4662,7 +4668,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -4715,7 +4721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -4768,7 +4774,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -4821,7 +4827,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -4874,7 +4880,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -4927,7 +4933,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>61</v>
       </c>
@@ -4980,7 +4986,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>61</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -5086,7 +5092,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -5139,7 +5145,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>61</v>
       </c>
@@ -5192,7 +5198,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>61</v>
       </c>
@@ -5245,7 +5251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -5298,7 +5304,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -5351,7 +5357,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>61</v>
       </c>
@@ -5404,7 +5410,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>61</v>
       </c>
@@ -5457,7 +5463,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>61</v>
       </c>
@@ -5510,7 +5516,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>61</v>
       </c>
@@ -5563,7 +5569,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -5616,7 +5622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -5669,7 +5675,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -5722,7 +5728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>61</v>
       </c>
@@ -5775,7 +5781,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -5828,7 +5834,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>61</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>61</v>
       </c>
@@ -5985,6 +5991,1646 @@
       </c>
       <c r="Q101" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="1">
+        <v>45596.39261574074</v>
+      </c>
+      <c r="D102" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102">
+        <v>0.1</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+      <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>6.5</v>
+      </c>
+      <c r="J102">
+        <v>3</v>
+      </c>
+      <c r="K102">
+        <v>4</v>
+      </c>
+      <c r="L102">
+        <v>3000</v>
+      </c>
+      <c r="M102">
+        <v>100000000</v>
+      </c>
+      <c r="N102">
+        <v>130</v>
+      </c>
+      <c r="O102">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P102">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>63</v>
+      </c>
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="1">
+        <v>45596.392974537041</v>
+      </c>
+      <c r="D103" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" t="s">
+        <v>20</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103">
+        <v>20</v>
+      </c>
+      <c r="H103">
+        <v>1</v>
+      </c>
+      <c r="I103">
+        <v>6.5</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
+      </c>
+      <c r="K103">
+        <v>4</v>
+      </c>
+      <c r="L103">
+        <v>3000</v>
+      </c>
+      <c r="M103">
+        <v>1000000000</v>
+      </c>
+      <c r="N103">
+        <v>130</v>
+      </c>
+      <c r="O103">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P103">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>63</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104" s="1">
+        <v>45596.396365740737</v>
+      </c>
+      <c r="D104" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" t="s">
+        <v>18</v>
+      </c>
+      <c r="F104">
+        <v>0.1</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+      <c r="H104">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <v>6.5</v>
+      </c>
+      <c r="J104">
+        <v>3</v>
+      </c>
+      <c r="K104">
+        <v>4</v>
+      </c>
+      <c r="L104">
+        <v>3000</v>
+      </c>
+      <c r="M104">
+        <v>100000000</v>
+      </c>
+      <c r="N104">
+        <v>130</v>
+      </c>
+      <c r="O104">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P104">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>63</v>
+      </c>
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C105" s="1">
+        <v>45596.39702546296</v>
+      </c>
+      <c r="D105" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" t="s">
+        <v>18</v>
+      </c>
+      <c r="F105">
+        <v>0.05</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <v>6.5</v>
+      </c>
+      <c r="J105">
+        <v>3</v>
+      </c>
+      <c r="K105">
+        <v>4</v>
+      </c>
+      <c r="L105">
+        <v>3000</v>
+      </c>
+      <c r="M105">
+        <v>20000000</v>
+      </c>
+      <c r="N105">
+        <v>130</v>
+      </c>
+      <c r="O105">
+        <v>17.8</v>
+      </c>
+      <c r="P105">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>63</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" s="1">
+        <v>45596.397418981483</v>
+      </c>
+      <c r="D106" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106">
+        <v>20</v>
+      </c>
+      <c r="H106">
+        <v>1</v>
+      </c>
+      <c r="I106">
+        <v>6.5</v>
+      </c>
+      <c r="J106">
+        <v>3</v>
+      </c>
+      <c r="K106">
+        <v>4</v>
+      </c>
+      <c r="L106">
+        <v>3000</v>
+      </c>
+      <c r="M106">
+        <v>1000000000</v>
+      </c>
+      <c r="N106">
+        <v>130</v>
+      </c>
+      <c r="O106">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P106">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>63</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" s="1">
+        <v>45596.399456018517</v>
+      </c>
+      <c r="D107" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" t="s">
+        <v>18</v>
+      </c>
+      <c r="F107">
+        <v>0.05</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <v>6.5</v>
+      </c>
+      <c r="J107">
+        <v>3</v>
+      </c>
+      <c r="K107">
+        <v>4</v>
+      </c>
+      <c r="L107">
+        <v>3000</v>
+      </c>
+      <c r="M107">
+        <v>20000000</v>
+      </c>
+      <c r="N107">
+        <v>130</v>
+      </c>
+      <c r="O107">
+        <v>17.7</v>
+      </c>
+      <c r="P107">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>63</v>
+      </c>
+      <c r="B108" t="s">
+        <v>26</v>
+      </c>
+      <c r="C108" s="1">
+        <v>45596.399884259263</v>
+      </c>
+      <c r="D108" t="s">
+        <v>17</v>
+      </c>
+      <c r="E108" t="s">
+        <v>20</v>
+      </c>
+      <c r="F108">
+        <v>0.1</v>
+      </c>
+      <c r="G108">
+        <v>20</v>
+      </c>
+      <c r="H108">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <v>6.5</v>
+      </c>
+      <c r="J108">
+        <v>3</v>
+      </c>
+      <c r="K108">
+        <v>4</v>
+      </c>
+      <c r="L108">
+        <v>3000</v>
+      </c>
+      <c r="M108">
+        <v>100000000</v>
+      </c>
+      <c r="N108">
+        <v>130</v>
+      </c>
+      <c r="O108">
+        <v>17.8</v>
+      </c>
+      <c r="P108">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>63</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109" s="1">
+        <v>45596.402916666673</v>
+      </c>
+      <c r="D109" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" t="s">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <v>0.05</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>6.5</v>
+      </c>
+      <c r="J109">
+        <v>3</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>3000</v>
+      </c>
+      <c r="M109">
+        <v>20000000</v>
+      </c>
+      <c r="N109">
+        <v>130</v>
+      </c>
+      <c r="O109">
+        <v>17.8</v>
+      </c>
+      <c r="P109">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>63</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="1">
+        <v>45596.403078703697</v>
+      </c>
+      <c r="D110" t="s">
+        <v>17</v>
+      </c>
+      <c r="E110" t="s">
+        <v>18</v>
+      </c>
+      <c r="F110">
+        <v>0.05</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>1</v>
+      </c>
+      <c r="I110">
+        <v>6.5</v>
+      </c>
+      <c r="J110">
+        <v>3</v>
+      </c>
+      <c r="K110">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <v>3000</v>
+      </c>
+      <c r="M110">
+        <v>20000000</v>
+      </c>
+      <c r="N110">
+        <v>130</v>
+      </c>
+      <c r="O110">
+        <v>17.8</v>
+      </c>
+      <c r="P110">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>63</v>
+      </c>
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="1">
+        <v>45596.403379629628</v>
+      </c>
+      <c r="D111" t="s">
+        <v>17</v>
+      </c>
+      <c r="E111" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111">
+        <v>0.2</v>
+      </c>
+      <c r="G111">
+        <v>20</v>
+      </c>
+      <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>6.5</v>
+      </c>
+      <c r="J111">
+        <v>3</v>
+      </c>
+      <c r="K111">
+        <v>4</v>
+      </c>
+      <c r="L111">
+        <v>3000</v>
+      </c>
+      <c r="M111">
+        <v>200000000</v>
+      </c>
+      <c r="N111">
+        <v>130</v>
+      </c>
+      <c r="O111">
+        <v>17.8</v>
+      </c>
+      <c r="P111">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="1">
+        <v>45596.406608796293</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="E112" t="s">
+        <v>18</v>
+      </c>
+      <c r="F112">
+        <v>0.05</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112">
+        <v>1</v>
+      </c>
+      <c r="I112">
+        <v>6.5</v>
+      </c>
+      <c r="J112">
+        <v>3</v>
+      </c>
+      <c r="K112">
+        <v>4</v>
+      </c>
+      <c r="L112">
+        <v>3000</v>
+      </c>
+      <c r="M112">
+        <v>20000000</v>
+      </c>
+      <c r="N112">
+        <v>130</v>
+      </c>
+      <c r="O112">
+        <v>17.8</v>
+      </c>
+      <c r="P112">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" t="s">
+        <v>31</v>
+      </c>
+      <c r="C113" s="1">
+        <v>45596.406875000001</v>
+      </c>
+      <c r="D113" t="s">
+        <v>17</v>
+      </c>
+      <c r="E113" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113">
+        <v>0.2</v>
+      </c>
+      <c r="G113">
+        <v>20</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>6.5</v>
+      </c>
+      <c r="J113">
+        <v>3</v>
+      </c>
+      <c r="K113">
+        <v>4</v>
+      </c>
+      <c r="L113">
+        <v>3000</v>
+      </c>
+      <c r="M113">
+        <v>200000000</v>
+      </c>
+      <c r="N113">
+        <v>130</v>
+      </c>
+      <c r="O113">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="P113">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>63</v>
+      </c>
+      <c r="B114" t="s">
+        <v>32</v>
+      </c>
+      <c r="C114" s="1">
+        <v>45596.409722222219</v>
+      </c>
+      <c r="D114" t="s">
+        <v>17</v>
+      </c>
+      <c r="E114" t="s">
+        <v>18</v>
+      </c>
+      <c r="F114">
+        <v>0.05</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114">
+        <v>1</v>
+      </c>
+      <c r="I114">
+        <v>6.5</v>
+      </c>
+      <c r="J114">
+        <v>3</v>
+      </c>
+      <c r="K114">
+        <v>4</v>
+      </c>
+      <c r="L114">
+        <v>3000</v>
+      </c>
+      <c r="M114">
+        <v>20000000</v>
+      </c>
+      <c r="N114">
+        <v>130</v>
+      </c>
+      <c r="O114">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P114">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>63</v>
+      </c>
+      <c r="B115" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="1">
+        <v>45596.409884259258</v>
+      </c>
+      <c r="D115" t="s">
+        <v>17</v>
+      </c>
+      <c r="E115" t="s">
+        <v>18</v>
+      </c>
+      <c r="F115">
+        <v>0.05</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>6.5</v>
+      </c>
+      <c r="J115">
+        <v>3</v>
+      </c>
+      <c r="K115">
+        <v>4</v>
+      </c>
+      <c r="L115">
+        <v>3000</v>
+      </c>
+      <c r="M115">
+        <v>20000000</v>
+      </c>
+      <c r="N115">
+        <v>130</v>
+      </c>
+      <c r="O115">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P115">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" t="s">
+        <v>34</v>
+      </c>
+      <c r="C116" s="1">
+        <v>45596.410173611112</v>
+      </c>
+      <c r="D116" t="s">
+        <v>17</v>
+      </c>
+      <c r="E116" t="s">
+        <v>20</v>
+      </c>
+      <c r="F116">
+        <v>0.2</v>
+      </c>
+      <c r="G116">
+        <v>20</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>6.5</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
+      <c r="K116">
+        <v>4</v>
+      </c>
+      <c r="L116">
+        <v>3000</v>
+      </c>
+      <c r="M116">
+        <v>200000000</v>
+      </c>
+      <c r="N116">
+        <v>130</v>
+      </c>
+      <c r="O116">
+        <v>18</v>
+      </c>
+      <c r="P116">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>63</v>
+      </c>
+      <c r="B117" t="s">
+        <v>35</v>
+      </c>
+      <c r="C117" s="1">
+        <v>45596.412928240738</v>
+      </c>
+      <c r="D117" t="s">
+        <v>17</v>
+      </c>
+      <c r="E117" t="s">
+        <v>20</v>
+      </c>
+      <c r="F117">
+        <v>0.2</v>
+      </c>
+      <c r="G117">
+        <v>20</v>
+      </c>
+      <c r="H117">
+        <v>1</v>
+      </c>
+      <c r="I117">
+        <v>6.5</v>
+      </c>
+      <c r="J117">
+        <v>3</v>
+      </c>
+      <c r="K117">
+        <v>4</v>
+      </c>
+      <c r="L117">
+        <v>3000</v>
+      </c>
+      <c r="M117">
+        <v>200000000</v>
+      </c>
+      <c r="N117">
+        <v>130</v>
+      </c>
+      <c r="O117">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P117">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>63</v>
+      </c>
+      <c r="B118" t="s">
+        <v>36</v>
+      </c>
+      <c r="C118" s="1">
+        <v>45596.413495370369</v>
+      </c>
+      <c r="D118" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" t="s">
+        <v>18</v>
+      </c>
+      <c r="F118">
+        <v>0.05</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
+        <v>6.5</v>
+      </c>
+      <c r="J118">
+        <v>3</v>
+      </c>
+      <c r="K118">
+        <v>4</v>
+      </c>
+      <c r="L118">
+        <v>3000</v>
+      </c>
+      <c r="M118">
+        <v>20000000</v>
+      </c>
+      <c r="N118">
+        <v>130</v>
+      </c>
+      <c r="O118">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P118">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>63</v>
+      </c>
+      <c r="B119" t="s">
+        <v>37</v>
+      </c>
+      <c r="C119" s="1">
+        <v>45596.413611111107</v>
+      </c>
+      <c r="D119" t="s">
+        <v>17</v>
+      </c>
+      <c r="E119" t="s">
+        <v>18</v>
+      </c>
+      <c r="F119">
+        <v>0.05</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>6.5</v>
+      </c>
+      <c r="J119">
+        <v>3</v>
+      </c>
+      <c r="K119">
+        <v>4</v>
+      </c>
+      <c r="L119">
+        <v>3000</v>
+      </c>
+      <c r="M119">
+        <v>20000000</v>
+      </c>
+      <c r="N119">
+        <v>130</v>
+      </c>
+      <c r="O119">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P119">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>63</v>
+      </c>
+      <c r="B120" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" s="1">
+        <v>45596.413854166669</v>
+      </c>
+      <c r="D120" t="s">
+        <v>17</v>
+      </c>
+      <c r="E120" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120">
+        <v>0.5</v>
+      </c>
+      <c r="G120">
+        <v>20</v>
+      </c>
+      <c r="H120">
+        <v>1</v>
+      </c>
+      <c r="I120">
+        <v>6.5</v>
+      </c>
+      <c r="J120">
+        <v>3</v>
+      </c>
+      <c r="K120">
+        <v>4</v>
+      </c>
+      <c r="L120">
+        <v>3000</v>
+      </c>
+      <c r="M120">
+        <v>500000000</v>
+      </c>
+      <c r="N120">
+        <v>130</v>
+      </c>
+      <c r="O120">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P120">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>63</v>
+      </c>
+      <c r="B121" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="1">
+        <v>45596.41847222222</v>
+      </c>
+      <c r="D121" t="s">
+        <v>17</v>
+      </c>
+      <c r="E121" t="s">
+        <v>20</v>
+      </c>
+      <c r="F121">
+        <v>0.5</v>
+      </c>
+      <c r="G121">
+        <v>20</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>6.5</v>
+      </c>
+      <c r="J121">
+        <v>3</v>
+      </c>
+      <c r="K121">
+        <v>4</v>
+      </c>
+      <c r="L121">
+        <v>3000</v>
+      </c>
+      <c r="M121">
+        <v>500000000</v>
+      </c>
+      <c r="N121">
+        <v>130</v>
+      </c>
+      <c r="O121">
+        <v>18.3</v>
+      </c>
+      <c r="P121">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>63</v>
+      </c>
+      <c r="B122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" s="1">
+        <v>45596.418993055559</v>
+      </c>
+      <c r="D122" t="s">
+        <v>17</v>
+      </c>
+      <c r="E122" t="s">
+        <v>18</v>
+      </c>
+      <c r="F122">
+        <v>0.05</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+      <c r="H122">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <v>6.5</v>
+      </c>
+      <c r="J122">
+        <v>3</v>
+      </c>
+      <c r="K122">
+        <v>4</v>
+      </c>
+      <c r="L122">
+        <v>3000</v>
+      </c>
+      <c r="M122">
+        <v>20000000</v>
+      </c>
+      <c r="N122">
+        <v>130</v>
+      </c>
+      <c r="O122">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="P122">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>63</v>
+      </c>
+      <c r="B123" t="s">
+        <v>41</v>
+      </c>
+      <c r="C123" s="1">
+        <v>45596.423831018517</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="E123" t="s">
+        <v>18</v>
+      </c>
+      <c r="F123">
+        <v>0.05</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+      <c r="H123">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <v>6.5</v>
+      </c>
+      <c r="J123">
+        <v>3</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>3000</v>
+      </c>
+      <c r="M123">
+        <v>20000000</v>
+      </c>
+      <c r="N123">
+        <v>130</v>
+      </c>
+      <c r="O123">
+        <v>18.5</v>
+      </c>
+      <c r="P123">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>63</v>
+      </c>
+      <c r="B124" t="s">
+        <v>42</v>
+      </c>
+      <c r="C124" s="1">
+        <v>45596.424166666657</v>
+      </c>
+      <c r="D124" t="s">
+        <v>17</v>
+      </c>
+      <c r="E124" t="s">
+        <v>20</v>
+      </c>
+      <c r="F124">
+        <v>0.5</v>
+      </c>
+      <c r="G124">
+        <v>20</v>
+      </c>
+      <c r="H124">
+        <v>1</v>
+      </c>
+      <c r="I124">
+        <v>6.5</v>
+      </c>
+      <c r="J124">
+        <v>3</v>
+      </c>
+      <c r="K124">
+        <v>4</v>
+      </c>
+      <c r="L124">
+        <v>3000</v>
+      </c>
+      <c r="M124">
+        <v>500000000</v>
+      </c>
+      <c r="N124">
+        <v>130</v>
+      </c>
+      <c r="O124">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="P124">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>63</v>
+      </c>
+      <c r="B125" t="s">
+        <v>43</v>
+      </c>
+      <c r="C125" s="1">
+        <v>45596.428055555552</v>
+      </c>
+      <c r="D125" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>20</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>6.5</v>
+      </c>
+      <c r="J125">
+        <v>3</v>
+      </c>
+      <c r="K125">
+        <v>4</v>
+      </c>
+      <c r="L125">
+        <v>3000</v>
+      </c>
+      <c r="M125">
+        <v>1000000000</v>
+      </c>
+      <c r="N125">
+        <v>130</v>
+      </c>
+      <c r="O125">
+        <v>18.8</v>
+      </c>
+      <c r="P125">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>63</v>
+      </c>
+      <c r="B126" t="s">
+        <v>45</v>
+      </c>
+      <c r="C126" s="1">
+        <v>45596.42863425926</v>
+      </c>
+      <c r="D126" t="s">
+        <v>17</v>
+      </c>
+      <c r="E126" t="s">
+        <v>18</v>
+      </c>
+      <c r="F126">
+        <v>0.2</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+      <c r="H126">
+        <v>1</v>
+      </c>
+      <c r="I126">
+        <v>6.5</v>
+      </c>
+      <c r="J126">
+        <v>3</v>
+      </c>
+      <c r="K126">
+        <v>4</v>
+      </c>
+      <c r="L126">
+        <v>3000</v>
+      </c>
+      <c r="M126">
+        <v>200000000</v>
+      </c>
+      <c r="N126">
+        <v>130</v>
+      </c>
+      <c r="O126">
+        <v>18.8</v>
+      </c>
+      <c r="P126">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>63</v>
+      </c>
+      <c r="B127" t="s">
+        <v>46</v>
+      </c>
+      <c r="C127" s="1">
+        <v>45596.439456018517</v>
+      </c>
+      <c r="D127" t="s">
+        <v>17</v>
+      </c>
+      <c r="E127" t="s">
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <v>0.2</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
+      </c>
+      <c r="I127">
+        <v>6.5</v>
+      </c>
+      <c r="J127">
+        <v>3</v>
+      </c>
+      <c r="K127">
+        <v>4</v>
+      </c>
+      <c r="L127">
+        <v>3000</v>
+      </c>
+      <c r="M127">
+        <v>200000000</v>
+      </c>
+      <c r="N127">
+        <v>130</v>
+      </c>
+      <c r="O127">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="P127">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>63</v>
+      </c>
+      <c r="B128" t="s">
+        <v>47</v>
+      </c>
+      <c r="C128" s="1">
+        <v>45596.440092592587</v>
+      </c>
+      <c r="D128" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" t="s">
+        <v>20</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>20</v>
+      </c>
+      <c r="H128">
+        <v>1</v>
+      </c>
+      <c r="I128">
+        <v>6.5</v>
+      </c>
+      <c r="J128">
+        <v>3</v>
+      </c>
+      <c r="K128">
+        <v>4</v>
+      </c>
+      <c r="L128">
+        <v>3000</v>
+      </c>
+      <c r="M128">
+        <v>1000000000</v>
+      </c>
+      <c r="N128">
+        <v>130</v>
+      </c>
+      <c r="O128">
+        <v>19.2</v>
+      </c>
+      <c r="P128">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129" t="s">
+        <v>48</v>
+      </c>
+      <c r="C129" s="1">
+        <v>45596.449212962973</v>
+      </c>
+      <c r="D129" t="s">
+        <v>17</v>
+      </c>
+      <c r="E129" t="s">
+        <v>20</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>20</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>6.5</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+      <c r="K129">
+        <v>4</v>
+      </c>
+      <c r="L129">
+        <v>3000</v>
+      </c>
+      <c r="M129">
+        <v>1000000000</v>
+      </c>
+      <c r="N129">
+        <v>130</v>
+      </c>
+      <c r="O129">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="P129">
+        <v>0</v>
+      </c>
+      <c r="Q129" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" s="1">
+        <v>45596.449884259258</v>
+      </c>
+      <c r="D130" t="s">
+        <v>17</v>
+      </c>
+      <c r="E130" t="s">
+        <v>18</v>
+      </c>
+      <c r="F130">
+        <v>0.2</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>6.5</v>
+      </c>
+      <c r="J130">
+        <v>3</v>
+      </c>
+      <c r="K130">
+        <v>4</v>
+      </c>
+      <c r="L130">
+        <v>3000</v>
+      </c>
+      <c r="M130">
+        <v>200000000</v>
+      </c>
+      <c r="N130">
+        <v>130</v>
+      </c>
+      <c r="O130">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="P130">
+        <v>0</v>
+      </c>
+      <c r="Q130" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>63</v>
+      </c>
+      <c r="B131" t="s">
+        <v>50</v>
+      </c>
+      <c r="C131" s="1">
+        <v>45596.451215277782</v>
+      </c>
+      <c r="D131" t="s">
+        <v>17</v>
+      </c>
+      <c r="E131" t="s">
+        <v>18</v>
+      </c>
+      <c r="F131">
+        <v>0.2</v>
+      </c>
+      <c r="G131">
+        <v>1</v>
+      </c>
+      <c r="H131">
+        <v>1</v>
+      </c>
+      <c r="I131">
+        <v>6.5</v>
+      </c>
+      <c r="J131">
+        <v>3</v>
+      </c>
+      <c r="K131">
+        <v>4</v>
+      </c>
+      <c r="L131">
+        <v>3000</v>
+      </c>
+      <c r="M131">
+        <v>200000000</v>
+      </c>
+      <c r="N131">
+        <v>130</v>
+      </c>
+      <c r="O131">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="P131">
+        <v>1</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>63</v>
+      </c>
+      <c r="B132" t="s">
+        <v>51</v>
+      </c>
+      <c r="C132" s="1">
+        <v>45596.451898148152</v>
+      </c>
+      <c r="D132" t="s">
+        <v>17</v>
+      </c>
+      <c r="E132" t="s">
+        <v>20</v>
+      </c>
+      <c r="F132">
+        <v>1</v>
+      </c>
+      <c r="G132">
+        <v>20</v>
+      </c>
+      <c r="H132">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>6.5</v>
+      </c>
+      <c r="J132">
+        <v>3</v>
+      </c>
+      <c r="K132">
+        <v>4</v>
+      </c>
+      <c r="L132">
+        <v>3000</v>
+      </c>
+      <c r="M132">
+        <v>1000000000</v>
+      </c>
+      <c r="N132">
+        <v>130</v>
+      </c>
+      <c r="O132">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="P132">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data_processing/2024/OES/data/echelle_db.xlsx
+++ b/data_processing/2024/OES/data/echelle_db.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/OES/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B6E5ED-7B2E-EF46-B64E-FA75A2D7DF70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88525A8-0FC8-1948-82EE-83B5AED3DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spectrometer parameters" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="65">
   <si>
     <t>Folder</t>
   </si>
@@ -627,8 +627,8 @@
   <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U117" sqref="U117"/>
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P131" sqref="P131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7632,6 +7632,9 @@
       <c r="P132">
         <v>1</v>
       </c>
+      <c r="Q132" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:Q101" xr:uid="{00000000-0001-0000-0000-000000000000}"/>

--- a/data_processing/2024/OES/data/echelle_db.xlsx
+++ b/data_processing/2024/OES/data/echelle_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/OES/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F88525A8-0FC8-1948-82EE-83B5AED3DF2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124CE5ED-E90B-B34F-A459-F8CC60582B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,8 +627,8 @@
   <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P131" sqref="P131"/>
+      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P118" sqref="P118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6835,7 +6835,7 @@
         <v>18.100000000000001</v>
       </c>
       <c r="P117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q117" t="s">
         <v>64</v>

--- a/data_processing/2024/OES/data/echelle_db.xlsx
+++ b/data_processing/2024/OES/data/echelle_db.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/OES/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124CE5ED-E90B-B34F-A459-F8CC60582B32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50DB39-3B48-8542-8C1D-5841A63EE166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -627,8 +627,8 @@
   <dimension ref="A1:Q132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P118" sqref="P118"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2277,7 +2277,7 @@
         <v>22.1</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="s">
         <v>59</v>

--- a/data_processing/2024/OES/data/echelle_db.xlsx
+++ b/data_processing/2024/OES/data/echelle_db.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erickmartinez/Library/Mobile Documents/com~apple~CloudDocs/Documents/GitHub/relozwall/data_processing/2024/OES/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE50DB39-3B48-8542-8C1D-5841A63EE166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A7AEAF-A8A4-4B41-89AA-E99B77A44403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="66">
   <si>
     <t>Folder</t>
   </si>
@@ -231,6 +231,9 @@
   </si>
   <si>
     <t>Boron rod (redeposition)</t>
+  </si>
+  <si>
+    <t>Timestamp on</t>
   </si>
 </sst>
 </file>
@@ -624,11 +627,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q132"/>
+  <dimension ref="A1:R132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P31" sqref="P31"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R102" sqref="R102:R132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -638,9 +641,10 @@
     <col min="5" max="5" width="14.5" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" s="4" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -692,8 +696,11 @@
       <c r="Q1" s="6" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -745,8 +752,11 @@
       <c r="Q2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="1">
+        <v>45519.403020833342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -798,8 +808,11 @@
       <c r="Q3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="1">
+        <v>45519.403020833342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -851,8 +864,11 @@
       <c r="Q4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -904,8 +920,11 @@
       <c r="Q5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -957,8 +976,11 @@
       <c r="Q6" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1010,8 +1032,11 @@
       <c r="Q7" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1063,8 +1088,11 @@
       <c r="Q8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>15</v>
       </c>
@@ -1116,8 +1144,11 @@
       <c r="Q9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1169,8 +1200,11 @@
       <c r="Q10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1222,8 +1256,11 @@
       <c r="Q11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1275,8 +1312,11 @@
       <c r="Q12" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1328,8 +1368,11 @@
       <c r="Q13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1381,8 +1424,11 @@
       <c r="Q14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1434,8 +1480,11 @@
       <c r="Q15" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1487,8 +1536,11 @@
       <c r="Q16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1540,8 +1592,11 @@
       <c r="Q17" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1593,8 +1648,11 @@
       <c r="Q18" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1646,8 +1704,11 @@
       <c r="Q19" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1699,8 +1760,11 @@
       <c r="Q20" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1752,8 +1816,11 @@
       <c r="Q21" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1805,8 +1872,11 @@
       <c r="Q22" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1858,8 +1928,11 @@
       <c r="Q23" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1911,8 +1984,11 @@
       <c r="Q24" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1964,8 +2040,11 @@
       <c r="Q25" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -2017,8 +2096,11 @@
       <c r="Q26" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="1">
+        <v>45519.403020833335</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>44</v>
       </c>
@@ -2070,8 +2152,11 @@
       <c r="Q27" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>44</v>
       </c>
@@ -2123,8 +2208,11 @@
       <c r="Q28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2176,8 +2264,11 @@
       <c r="Q29" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -2229,8 +2320,11 @@
       <c r="Q30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -2282,8 +2376,11 @@
       <c r="Q31" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>44</v>
       </c>
@@ -2335,8 +2432,11 @@
       <c r="Q32" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2388,8 +2488,11 @@
       <c r="Q33" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -2441,8 +2544,11 @@
       <c r="Q34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -2494,8 +2600,11 @@
       <c r="Q35" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>44</v>
       </c>
@@ -2547,8 +2656,11 @@
       <c r="Q36" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>44</v>
       </c>
@@ -2600,8 +2712,11 @@
       <c r="Q37" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -2653,8 +2768,11 @@
       <c r="Q38" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -2706,8 +2824,11 @@
       <c r="Q39" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -2759,8 +2880,11 @@
       <c r="Q40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2812,8 +2936,11 @@
       <c r="Q41" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2865,8 +2992,11 @@
       <c r="Q42" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2918,8 +3048,11 @@
       <c r="Q43" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>44</v>
       </c>
@@ -2971,8 +3104,11 @@
       <c r="Q44" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -3024,8 +3160,11 @@
       <c r="Q45" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3077,8 +3216,11 @@
       <c r="Q46" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>44</v>
       </c>
@@ -3130,8 +3272,11 @@
       <c r="Q47" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>44</v>
       </c>
@@ -3183,8 +3328,11 @@
       <c r="Q48" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>44</v>
       </c>
@@ -3236,8 +3384,11 @@
       <c r="Q49" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3440,11 @@
       <c r="Q50" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -3342,8 +3496,11 @@
       <c r="Q51" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -3395,8 +3552,11 @@
       <c r="Q52" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>44</v>
       </c>
@@ -3448,8 +3608,11 @@
       <c r="Q53" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -3501,8 +3664,11 @@
       <c r="Q54" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>44</v>
       </c>
@@ -3554,8 +3720,11 @@
       <c r="Q55" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>44</v>
       </c>
@@ -3607,8 +3776,11 @@
       <c r="Q56" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>44</v>
       </c>
@@ -3660,8 +3832,11 @@
       <c r="Q57" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>44</v>
       </c>
@@ -3713,8 +3888,11 @@
       <c r="Q58" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -3766,8 +3944,11 @@
       <c r="Q59" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>44</v>
       </c>
@@ -3819,8 +4000,11 @@
       <c r="Q60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>44</v>
       </c>
@@ -3872,8 +4056,11 @@
       <c r="Q61" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="1">
+        <v>45531.381944444445</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -3925,8 +4112,11 @@
       <c r="Q62" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>55</v>
       </c>
@@ -3978,8 +4168,11 @@
       <c r="Q63" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>55</v>
       </c>
@@ -4031,8 +4224,11 @@
       <c r="Q64" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -4084,8 +4280,11 @@
       <c r="Q65" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>55</v>
       </c>
@@ -4137,8 +4336,11 @@
       <c r="Q66" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>55</v>
       </c>
@@ -4190,8 +4392,11 @@
       <c r="Q67" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>55</v>
       </c>
@@ -4243,8 +4448,11 @@
       <c r="Q68" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>55</v>
       </c>
@@ -4296,8 +4504,11 @@
       <c r="Q69" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>55</v>
       </c>
@@ -4349,8 +4560,11 @@
       <c r="Q70" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>55</v>
       </c>
@@ -4402,8 +4616,11 @@
       <c r="Q71" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>55</v>
       </c>
@@ -4455,8 +4672,11 @@
       <c r="Q72" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>55</v>
       </c>
@@ -4508,8 +4728,11 @@
       <c r="Q73" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="1">
+        <v>45545.446250000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>61</v>
       </c>
@@ -4561,8 +4784,11 @@
       <c r="Q74" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="1">
+        <v>45568.401331018518</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>61</v>
       </c>
@@ -4614,8 +4840,11 @@
       <c r="Q75" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="1">
+        <v>45568.401817129627</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>61</v>
       </c>
@@ -4667,8 +4896,11 @@
       <c r="Q76" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="1">
+        <v>45568.401817129627</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -4720,8 +4952,11 @@
       <c r="Q77" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>61</v>
       </c>
@@ -4773,8 +5008,11 @@
       <c r="Q78" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R78" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -4826,8 +5064,11 @@
       <c r="Q79" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R79" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>61</v>
       </c>
@@ -4879,8 +5120,11 @@
       <c r="Q80" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>61</v>
       </c>
@@ -4932,8 +5176,11 @@
       <c r="Q81" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>61</v>
       </c>
@@ -4985,8 +5232,11 @@
       <c r="Q82" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>61</v>
       </c>
@@ -5038,8 +5288,11 @@
       <c r="Q83" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -5091,8 +5344,11 @@
       <c r="Q84" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>61</v>
       </c>
@@ -5144,8 +5400,11 @@
       <c r="Q85" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>61</v>
       </c>
@@ -5197,8 +5456,11 @@
       <c r="Q86" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>61</v>
       </c>
@@ -5250,8 +5512,11 @@
       <c r="Q87" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>61</v>
       </c>
@@ -5303,8 +5568,11 @@
       <c r="Q88" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>61</v>
       </c>
@@ -5356,8 +5624,11 @@
       <c r="Q89" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>61</v>
       </c>
@@ -5409,8 +5680,11 @@
       <c r="Q90" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>61</v>
       </c>
@@ -5462,8 +5736,11 @@
       <c r="Q91" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>61</v>
       </c>
@@ -5515,8 +5792,11 @@
       <c r="Q92" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>61</v>
       </c>
@@ -5568,8 +5848,11 @@
       <c r="Q93" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>61</v>
       </c>
@@ -5621,8 +5904,11 @@
       <c r="Q94" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>61</v>
       </c>
@@ -5674,8 +5960,11 @@
       <c r="Q95" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>61</v>
       </c>
@@ -5727,8 +6016,11 @@
       <c r="Q96" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>61</v>
       </c>
@@ -5780,8 +6072,11 @@
       <c r="Q97" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>61</v>
       </c>
@@ -5833,8 +6128,11 @@
       <c r="Q98" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>61</v>
       </c>
@@ -5886,8 +6184,11 @@
       <c r="Q99" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>61</v>
       </c>
@@ -5939,8 +6240,11 @@
       <c r="Q100" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>61</v>
       </c>
@@ -5992,8 +6296,11 @@
       <c r="Q101" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="1">
+        <v>45568.401817071761</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -6045,8 +6352,11 @@
       <c r="Q102" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102" s="1">
+        <v>45596.390277777777</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>63</v>
       </c>
@@ -6098,8 +6408,11 @@
       <c r="Q103" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103" s="1">
+        <v>45596.390277777777</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>63</v>
       </c>
@@ -6151,8 +6464,11 @@
       <c r="Q104" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>63</v>
       </c>
@@ -6204,8 +6520,11 @@
       <c r="Q105" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>63</v>
       </c>
@@ -6257,8 +6576,11 @@
       <c r="Q106" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R106" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>63</v>
       </c>
@@ -6310,8 +6632,11 @@
       <c r="Q107" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>63</v>
       </c>
@@ -6363,8 +6688,11 @@
       <c r="Q108" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>63</v>
       </c>
@@ -6416,8 +6744,11 @@
       <c r="Q109" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R109" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>63</v>
       </c>
@@ -6469,8 +6800,11 @@
       <c r="Q110" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R110" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>63</v>
       </c>
@@ -6522,8 +6856,11 @@
       <c r="Q111" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R111" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>63</v>
       </c>
@@ -6575,8 +6912,11 @@
       <c r="Q112" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R112" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>63</v>
       </c>
@@ -6628,8 +6968,11 @@
       <c r="Q113" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R113" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>63</v>
       </c>
@@ -6681,8 +7024,11 @@
       <c r="Q114" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R114" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>63</v>
       </c>
@@ -6734,8 +7080,11 @@
       <c r="Q115" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R115" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>63</v>
       </c>
@@ -6787,8 +7136,11 @@
       <c r="Q116" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R116" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>63</v>
       </c>
@@ -6840,8 +7192,11 @@
       <c r="Q117" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R117" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>63</v>
       </c>
@@ -6893,8 +7248,11 @@
       <c r="Q118" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R118" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>63</v>
       </c>
@@ -6946,8 +7304,11 @@
       <c r="Q119" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R119" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>63</v>
       </c>
@@ -6999,8 +7360,11 @@
       <c r="Q120" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R120" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>63</v>
       </c>
@@ -7052,8 +7416,11 @@
       <c r="Q121" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R121" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>63</v>
       </c>
@@ -7105,8 +7472,11 @@
       <c r="Q122" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R122" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>63</v>
       </c>
@@ -7158,8 +7528,11 @@
       <c r="Q123" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R123" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>63</v>
       </c>
@@ -7211,8 +7584,11 @@
       <c r="Q124" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R124" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>63</v>
       </c>
@@ -7264,8 +7640,11 @@
       <c r="Q125" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R125" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>63</v>
       </c>
@@ -7317,8 +7696,11 @@
       <c r="Q126" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R126" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>63</v>
       </c>
@@ -7370,8 +7752,11 @@
       <c r="Q127" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R127" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>63</v>
       </c>
@@ -7423,8 +7808,11 @@
       <c r="Q128" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R128" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>63</v>
       </c>
@@ -7476,8 +7864,11 @@
       <c r="Q129" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R129" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>63</v>
       </c>
@@ -7529,8 +7920,11 @@
       <c r="Q130" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R130" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>63</v>
       </c>
@@ -7582,8 +7976,11 @@
       <c r="Q131" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R131" s="1">
+        <v>45596.390277719911</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>63</v>
       </c>
@@ -7634,6 +8031,9 @@
       </c>
       <c r="Q132" t="s">
         <v>64</v>
+      </c>
+      <c r="R132" s="1">
+        <v>45596.390277719911</v>
       </c>
     </row>
   </sheetData>
